--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed5/result_data_RandomForest.xlsx
@@ -583,10 +583,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.59999999999999</v>
+        <v>-21.7779</v>
       </c>
       <c r="B11" t="n">
-        <v>5.879700000000001</v>
+        <v>5.384700000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.3761</v>
+        <v>-21.39029999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.6053</v>
+        <v>-21.68779999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.763599999999999</v>
+        <v>8.8193</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.9331</v>
+        <v>-21.9692</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.864</v>
+        <v>-21.95510000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>5.553000000000004</v>
+        <v>5.526400000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.75120000000001</v>
+        <v>-21.71940000000001</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.12129999999999</v>
+        <v>-21.05619999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>6.373099999999995</v>
+        <v>6.043299999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.696600000000011</v>
+        <v>9.437700000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.28519999999999</v>
+        <v>-21.28179999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>5.478099999999997</v>
+        <v>5.584199999999998</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.157700000000002</v>
+        <v>8.972600000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.05819999999997</v>
+        <v>-19.69119999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.5152</v>
+        <v>10.2315</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.9797</v>
+        <v>-21.96270000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.270900000000003</v>
+        <v>4.985499999999999</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7716</v>
+        <v>-21.6992</v>
       </c>
       <c r="B54" t="n">
-        <v>4.744299999999997</v>
+        <v>4.684899999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.7769</v>
+        <v>-21.88180000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.10040000000002</v>
+        <v>-22.04160000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.52239999999997</v>
+        <v>-21.45629999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68429999999997</v>
+        <v>-21.73629999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.9848</v>
+        <v>-22.0473</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.6124</v>
+        <v>-19.2719</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.640899999999998</v>
+        <v>9.408499999999997</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.710700000000005</v>
+        <v>9.468200000000001</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.64389999999998</v>
+        <v>-21.60829999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.01090000000001</v>
+        <v>-21.99560000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.62459999999999</v>
+        <v>-20.45969999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.45110000000001</v>
+        <v>-21.5235</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.006099999999998</v>
+        <v>6.189199999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.8174</v>
+        <v>-21.8138</v>
       </c>
       <c r="B99" t="n">
-        <v>5.760799999999996</v>
+        <v>5.580399999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.121999999999998</v>
+        <v>4.7805</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.5091</v>
+        <v>4.4384</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.48629999999999</v>
+        <v>-21.55279999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-20.14159999999999</v>
+        <v>-19.98219999999999</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
